--- a/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC19_Verify_ShippingMethod.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQA/ALL_PAGES/END_TO_END/TC19_Verify_ShippingMethod.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\Logixal_QA_Sanity\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\LogixalQA\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF5DF85-0BC4-40AF-B9C8-D3E37AEAA4CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2747B92-69D2-4015-8E89-63E8F570AFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
   <si>
     <t>TestCase</t>
   </si>
@@ -310,6 +310,21 @@
     <t>CSS</t>
   </si>
   <si>
+    <t>EleType1</t>
+  </si>
+  <si>
+    <t>EleType2</t>
+  </si>
+  <si>
+    <t>TINY_SCROLL_DOWN</t>
+  </si>
+  <si>
+    <t>JSElement</t>
+  </si>
+  <si>
+    <t>CLICK_PRE_ENTERTEXT</t>
+  </si>
+  <si>
     <t>CLICK_JS</t>
   </si>
   <si>
@@ -319,22 +334,7 @@
     <t>JS_ID</t>
   </si>
   <si>
-    <t>EleType1</t>
-  </si>
-  <si>
     <t>EnableCertificate_GoTOPage</t>
-  </si>
-  <si>
-    <t>EleType2</t>
-  </si>
-  <si>
-    <t>TINY_SCROLL_DOWN</t>
-  </si>
-  <si>
-    <t>JSElement</t>
-  </si>
-  <si>
-    <t>CLICK_PRE_ENTERTEXT</t>
   </si>
 </sst>
 </file>
@@ -764,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -812,16 +812,16 @@
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -836,16 +836,16 @@
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -1021,7 +1021,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
@@ -1220,94 +1220,84 @@
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>92</v>
@@ -1320,22 +1310,22 @@
         <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>92</v>
@@ -1348,81 +1338,85 @@
         <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
-      <c r="B45" s="6" t="s">
-        <v>78</v>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
-      <c r="B47" s="6" t="s">
-        <v>78</v>
+      <c r="B47" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
-      <c r="B48" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
-      <c r="B49" s="5" t="s">
-        <v>101</v>
+      <c r="B49" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
@@ -1430,83 +1424,116 @@
         <v>77</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
-      <c r="B51" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="B51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
-      <c r="B52" s="5" t="s">
-        <v>77</v>
+      <c r="B52" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>67</v>
+      <c r="E52" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="5" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D58" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1909,18 +1936,18 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1933,12 +1960,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2139,15 +2163,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2172,10 +2200,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>